--- a/biology/Zoologie/Gnathostomose/Gnathostomose.xlsx
+++ b/biology/Zoologie/Gnathostomose/Gnathostomose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gnathostomose est une maladie causée par un parasite, le nématode Gnathostoma spinigerum et/ou Gnathostoma hispidum (en).
 Elle touche les vertébrés comme les petits carnivores tels que le chat ou le chien et, plus rarement, peut affecter l'Homme. 
@@ -514,9 +526,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quelques jours après l’infection, la larve migre dans la cavité abdominale. Apparaissent alors des douleurs épigastriques, de la fièvre, des vomissements, une perte d’appétit[1]. Elle peut migrer dans les tissus sous-cutanés, le plus souvent au niveau de l’abdomen, causant douleur, démangeaisons, éruption cutanée et œdème localisés. Après une ou quatre semaines, le parasite se déplace et les symptômes apparaissent à un autre endroit[1]. Le parasite peut aussi s'installer dans les viscères, le système nerveux ou les yeux, causant des symptômes afférents à la partie atteinte, tels que toux, hématurie, troubles de la vue[2]méningite, encéphalite ou éosinophilie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques jours après l’infection, la larve migre dans la cavité abdominale. Apparaissent alors des douleurs épigastriques, de la fièvre, des vomissements, une perte d’appétit. Elle peut migrer dans les tissus sous-cutanés, le plus souvent au niveau de l’abdomen, causant douleur, démangeaisons, éruption cutanée et œdème localisés. Après une ou quatre semaines, le parasite se déplace et les symptômes apparaissent à un autre endroit. Le parasite peut aussi s'installer dans les viscères, le système nerveux ou les yeux, causant des symptômes afférents à la partie atteinte, tels que toux, hématurie, troubles de la vueméningite, encéphalite ou éosinophilie.
 </t>
         </is>
       </c>
